--- a/N20_blast_scores.xlsx
+++ b/N20_blast_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick\Desktop\BLAST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF67027F-037E-4A96-9DE5-1B0FBDC287E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217F5592-5204-48E3-B159-AA8191FDA6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{E5B9849A-9BD3-4A1B-8E7A-846C5E05E904}"/>
   </bookViews>
@@ -221,7 +221,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>off_target_scores</t>
+    <t>Spec_scores</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +595,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1325,5 +1325,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>